--- a/RiskAssesment/RiskPriorities.xlsx
+++ b/RiskAssesment/RiskPriorities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Object Oriented Design\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Object Oriented Design\Project\OOD Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA40F9C4-9F6E-4FDF-B4A2-28438B8309C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00116AD9-D819-4F6E-B93F-8DE68FCE1E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>نوع ریسک</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>شماره دسته بندی</t>
+  </si>
+  <si>
+    <t>مسائل مربوط به پایین بودن سرور</t>
   </si>
 </sst>
 </file>
@@ -201,10 +204,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -239,6 +242,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -246,10 +252,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -285,6 +291,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,6 +323,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fa-IR"/>
+                  <a:t>شدت عواقب در صورت وقوع</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1554,11 +1618,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>462942</xdr:colOff>
+      <xdr:colOff>396267</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>119058</xdr:rowOff>
+      <xdr:rowOff>85720</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1688732" cy="217560"/>
+    <xdr:ext cx="1156308" cy="305148"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="TextBox 10">
@@ -1572,8 +1636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8406792" y="1385883"/>
-          <a:ext cx="1688732" cy="217560"/>
+          <a:off x="8340117" y="1352545"/>
+          <a:ext cx="1156308" cy="305148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,18 +1659,18 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="1"/>
           <a:r>
-            <a:rPr lang="fa-IR" sz="800"/>
+            <a:rPr lang="fa-IR" sz="700"/>
             <a:t>مسائل مربوط به نگهداری محتوا و </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="800"/>
+            <a:rPr lang="en-US" sz="700"/>
             <a:t>preview</a:t>
           </a:r>
         </a:p>
@@ -1787,6 +1851,65 @@
             <a:t>مسائل مربوط به تجهیزات تیم</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1174039" cy="201915"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3BD8BA-AAB0-4803-8ECF-8F2E25F7A580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391651" y="1385886"/>
+          <a:ext cx="1174039" cy="201915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fa-IR" sz="700"/>
+            <a:t>مسائل مربوط به پایین بودن سرور</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1851,16 +1974,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E886D5C2-4634-4E4B-829D-B241C07ACB17}" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:C13" xr:uid="{E886D5C2-4634-4E4B-829D-B241C07ACB17}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E886D5C2-4634-4E4B-829D-B241C07ACB17}" name="Table1" displayName="Table1" ref="A1:C14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C14" xr:uid="{E886D5C2-4634-4E4B-829D-B241C07ACB17}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5A1120D9-31C8-4C5A-A7C9-860D685C6CCA}" name="نوع ریسک" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{34244396-F923-450A-A4A7-D95AE6BAA410}" name="شماره دسته بندی" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{9E034D42-FA88-448D-BD11-978247DD6F66}" name="درصد اهمیت" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5A1120D9-31C8-4C5A-A7C9-860D685C6CCA}" name="نوع ریسک" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{34244396-F923-450A-A4A7-D95AE6BAA410}" name="شماره دسته بندی" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9E034D42-FA88-448D-BD11-978247DD6F66}" name="درصد اهمیت" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2132,7 +2255,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2286,8 +2409,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>

--- a/RiskAssesment/RiskPriorities.xlsx
+++ b/RiskAssesment/RiskPriorities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Object Oriented Design\Project\OOD Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Object Oriented Design\Project\Docs\OOD_Project_Docs\RiskAssesment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00116AD9-D819-4F6E-B93F-8DE68FCE1E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED8FB7-A816-4F5B-884E-B4D92902F1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>نوع ریسک</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>مسائل مربوط به پایین بودن سرور</t>
+  </si>
+  <si>
+    <t>سازگاری و ترتیب محتواهای کانال‌ها</t>
   </si>
 </sst>
 </file>
@@ -204,10 +207,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -246,16 +249,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -294,6 +300,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,6 +1924,65 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1251561" cy="201915"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C998FA-9A8B-4D2B-82A3-93598537464A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9177337" y="2324100"/>
+          <a:ext cx="1251561" cy="201915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fa-IR" sz="700"/>
+            <a:t>سازگاری و ترتیب محتواهای کانال‌ها</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1974,8 +2042,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E886D5C2-4634-4E4B-829D-B241C07ACB17}" name="Table1" displayName="Table1" ref="A1:C14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C14" xr:uid="{E886D5C2-4634-4E4B-829D-B241C07ACB17}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E886D5C2-4634-4E4B-829D-B241C07ACB17}" name="Table1" displayName="Table1" ref="A1:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C15" xr:uid="{E886D5C2-4634-4E4B-829D-B241C07ACB17}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2255,7 +2323,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2420,8 +2488,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
